--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>事件</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>python应用</t>
+  </si>
+  <si>
+    <t>学习JAVA编程</t>
+  </si>
+  <si>
+    <t>JAVA应用</t>
   </si>
 </sst>
 </file>
@@ -62,9 +68,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,8 +103,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,13 +126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -127,9 +134,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,24 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,47 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +240,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,120 +390,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -437,28 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,8 +455,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,25 +492,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -565,152 +545,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.2142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.9375" customWidth="1"/>
@@ -1107,7 +1081,7 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1119,12 +1093,64 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
